--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/54.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/54.xlsx
@@ -479,13 +479,13 @@
         <v>-6.772958932287394</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.085982332179933</v>
+        <v>-9.146128371434823</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.874571727020272</v>
+        <v>-1.725803889829739</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.022664772283466</v>
+        <v>-7.812454757856713</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.382257727633192</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.723891695840194</v>
+        <v>-9.793909331437746</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.866952006766388</v>
+        <v>-1.733750917654667</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.838495348208906</v>
+        <v>-7.655203108424741</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.943659220007831</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.30059454371539</v>
+        <v>-10.34505600416589</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.876182080269805</v>
+        <v>-1.733881840683084</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.652493001736504</v>
+        <v>-7.456802351161224</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.492948953486726</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.94198645993155</v>
+        <v>-10.98983882681805</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.858088517742539</v>
+        <v>-1.733737825351825</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.217514332122997</v>
+        <v>-7.032166600792682</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.032102050374728</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.58837963583325</v>
+        <v>-11.61129116580627</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.911583667153832</v>
+        <v>-1.786067759810204</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.976458852201137</v>
+        <v>-6.782260724149814</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.580481695471834</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.38593654034551</v>
+        <v>-12.40781377839404</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.701936621749272</v>
+        <v>-1.575923206897659</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.604100667079606</v>
+        <v>-6.402243541865873</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.149871287423346</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.01698553731671</v>
+        <v>-13.04903549467326</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.603574150499384</v>
+        <v>-1.481750272557123</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.970642686385531</v>
+        <v>-5.745481262113527</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.754336432821044</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.65151708684381</v>
+        <v>-13.66468794350258</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.511050846316906</v>
+        <v>-1.370138390831409</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.544357305858931</v>
+        <v>-5.342958411244659</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.402848906122911</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.3031471838822</v>
+        <v>-14.29980864665756</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.419011957339572</v>
+        <v>-1.294438695800548</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.151496574487257</v>
+        <v>-4.947374480881906</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.10409532737755</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.15546919118141</v>
+        <v>-15.14187938083169</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.290524097250872</v>
+        <v>-1.176896000887532</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.585686522576381</v>
+        <v>-4.385308827583764</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.86333518738359</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.92739136672957</v>
+        <v>-15.91672113991357</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.061736105091709</v>
+        <v>-0.9378567356032973</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.023503038552664</v>
+        <v>-3.858173438267347</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.680916130025788</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.70140831073242</v>
+        <v>-16.68067010303113</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9795949970627199</v>
+        <v>-0.8452417853009271</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.5356052808529</v>
+        <v>-3.387413504987403</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.562560302187884</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.42803111844821</v>
+        <v>-17.406376449548</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8041843235892741</v>
+        <v>-0.6653535442556109</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.952683589127889</v>
+        <v>-2.818984992508182</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.508668970427438</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.21411916567113</v>
+        <v>-18.17619076433865</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6232094214080947</v>
+        <v>-0.4794559362059424</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.660659774243189</v>
+        <v>-2.536217435732583</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.517199932614989</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.08085579839908</v>
+        <v>-19.0439616889911</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4600400510916627</v>
+        <v>-0.3162211043753018</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.108007486688248</v>
+        <v>-1.972711629121851</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.583902701582364</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.89702995755228</v>
+        <v>-19.87402678145937</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.204897253312105</v>
+        <v>-0.07453719391703859</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.832676357926749</v>
+        <v>-1.701818791023697</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.70265930672947</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.67140039373185</v>
+        <v>-20.61558790671758</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.07686762382286583</v>
+        <v>0.0340896427607626</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.399006918597415</v>
+        <v>-1.263148092008823</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.865242451622794</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.40645464447772</v>
+        <v>-21.34069200730373</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1912627383756841</v>
+        <v>0.3087137871688086</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.01144856987664</v>
+        <v>-0.8813372642355658</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.060400174134579</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.0393496561496</v>
+        <v>-21.97479151083705</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3349638543664694</v>
+        <v>0.4578482088389103</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.7570389410562185</v>
+        <v>-0.6517899185115826</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.281762189401683</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.66287057898681</v>
+        <v>-22.59323262017167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5267006294835477</v>
+        <v>0.6443349705164564</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4418941193530304</v>
+        <v>-0.3157759660786831</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.520150939906748</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.1208131477847</v>
+        <v>-23.04796757477334</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7076231624533602</v>
+        <v>0.8138017384997586</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3308059297409847</v>
+        <v>-0.1971727946354867</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.766993070454034</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.5681509512808</v>
+        <v>-23.48841882697469</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8051084494128525</v>
+        <v>0.8969640461504026</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2085238211992632</v>
+        <v>-0.05471544741466532</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.014222568912897</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.03376560954394</v>
+        <v>-23.97550486189827</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9522135641424866</v>
+        <v>1.041411423403166</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2065076065616374</v>
+        <v>-0.09231654117610259</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.254087036708828</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.28898696114055</v>
+        <v>-24.22407532365127</v>
       </c>
       <c r="F25" t="n">
-        <v>1.022637061128131</v>
+        <v>1.095430264928128</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.04221229820081692</v>
+        <v>0.09904055715856562</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.478013032347434</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.57430751697029</v>
+        <v>-24.49245443960382</v>
       </c>
       <c r="F26" t="n">
-        <v>1.160315717811722</v>
+        <v>1.23182587593323</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1503154427649491</v>
+        <v>-0.002725912830171102</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.678475428326228</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.61050773432766</v>
+        <v>-24.5440642974059</v>
       </c>
       <c r="F27" t="n">
-        <v>1.126629222599961</v>
+        <v>1.199972303119311</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3565846740363433</v>
+        <v>-0.2021216851096591</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.851678693826076</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.69888077850931</v>
+        <v>-24.62695166669687</v>
       </c>
       <c r="F28" t="n">
-        <v>1.048180143972339</v>
+        <v>1.128868006385896</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7147900797859685</v>
+        <v>-0.5537940317412631</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.993185760900512</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.51285224743123</v>
+        <v>-24.4392342285522</v>
       </c>
       <c r="F29" t="n">
-        <v>1.060526185552086</v>
+        <v>1.143295724117479</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7529279579639165</v>
+        <v>-0.6027461520664769</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.099892006650767</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.25761780353178</v>
+        <v>-24.17880214042459</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9421193986515158</v>
+        <v>1.03157910396903</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.069918794367788</v>
+        <v>-0.9187681580600606</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.170223843835407</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.03283605604218</v>
+        <v>-23.95708399179995</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8727040089846841</v>
+        <v>0.9622160835135654</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.26395981478501</v>
+        <v>-1.132905863339332</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.203767226425474</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.67893801792749</v>
+        <v>-23.61125081223576</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8536547083499727</v>
+        <v>0.9397496918371634</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.51897168953615</v>
+        <v>-1.378779310706948</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.199249710051077</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.33114099293703</v>
+        <v>-23.27894198150707</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8089968633568452</v>
+        <v>0.9034578283598987</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.801137000381031</v>
+        <v>-1.656820546156684</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.159982868139362</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.90349401291489</v>
+        <v>-22.8291951942881</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7520846229038619</v>
+        <v>0.841073005319074</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.019490427175338</v>
+        <v>-1.895165919390307</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.089889289678407</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.52565015290268</v>
+        <v>-22.46792618967351</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6695769303953042</v>
+        <v>0.7603327736941493</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.256788416181623</v>
+        <v>-2.171465878562094</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.992347729430247</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.96168611569249</v>
+        <v>-21.89723270880267</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7116948686371369</v>
+        <v>0.8078840176152984</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.533690621284129</v>
+        <v>-2.468294568589708</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.871087522725685</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.51188695926215</v>
+        <v>-21.44904390562186</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7276543858012011</v>
+        <v>0.8255062572402617</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.719967906116208</v>
+        <v>-2.65179628521934</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.730349947434239</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.02922612269907</v>
+        <v>-20.9657284539167</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8240530116248301</v>
+        <v>0.9207658527166606</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.854111641032533</v>
+        <v>-2.783387021081529</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.575172576177965</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.53678533591323</v>
+        <v>-20.47959815710057</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8338722387561247</v>
+        <v>0.9399198917741058</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.89747334804433</v>
+        <v>-2.839618461786742</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.408959192615492</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.89128243660477</v>
+        <v>-19.82212889299477</v>
       </c>
       <c r="F40" t="n">
-        <v>0.852973908602203</v>
+        <v>0.9603831611157236</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.005314646551628</v>
+        <v>-2.958182356321414</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.242474117113787</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.363597170569</v>
+        <v>-19.28523973806127</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9202290683001498</v>
+        <v>1.033385841761188</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.152524499703996</v>
+        <v>-3.113640360264069</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.084653443808887</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.59987077659975</v>
+        <v>-18.52595163475536</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9006167986432442</v>
+        <v>1.009898250463132</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.369097373311828</v>
+        <v>-3.328943280496254</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.944438839605927</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.0946257176347</v>
+        <v>-18.00760118064575</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9902990731090677</v>
+        <v>1.112790658496257</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.408348097231323</v>
+        <v>-3.367631035393555</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.830406316309936</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.52160180685803</v>
+        <v>-17.44666146539199</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9564685625660475</v>
+        <v>1.068407751862805</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.565665208177503</v>
+        <v>-3.517996133530779</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.750274097585852</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.88807836464975</v>
+        <v>-16.80148587365457</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9657379129779896</v>
+        <v>1.084432730541078</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.730510393257676</v>
+        <v>-3.694009052934944</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.70945220872114</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.40836329622606</v>
+        <v>-16.32555448075215</v>
       </c>
       <c r="F46" t="n">
-        <v>0.817179552632924</v>
+        <v>0.914965962557776</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.888652319282885</v>
+        <v>-3.855031285585333</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.710362096493279</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.79996398317105</v>
+        <v>-15.72859784038081</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8869615267793238</v>
+        <v>0.9910191497653627</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.881883598713713</v>
+        <v>-3.834279985581197</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.758520871056588</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.1872834870868</v>
+        <v>-15.09030879993813</v>
       </c>
       <c r="F48" t="n">
-        <v>0.854597354154577</v>
+        <v>0.9711057571430973</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.039344724991152</v>
+        <v>-3.980586469837486</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.853607054908198</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.65729397575089</v>
+        <v>-14.58201323441096</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7873683790623137</v>
+        <v>0.8922639094302229</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.132627382738451</v>
+        <v>-4.08620207686169</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.992226684188618</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.12514423444609</v>
+        <v>-14.06337474963883</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7855223643616303</v>
+        <v>0.8858617733406189</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.232875145597547</v>
+        <v>-4.166353154858737</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.168396212005741</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.62077635977143</v>
+        <v>-13.58629123408633</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8867913268423814</v>
+        <v>0.9963869939304704</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.326825510789774</v>
+        <v>-4.262214996265856</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.374419843648216</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.00827915592696</v>
+        <v>-12.95657765200499</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7938228843632846</v>
+        <v>0.8876030496185684</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.440623807090057</v>
+        <v>-4.368720879883297</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.599528475477442</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.58738780417115</v>
+        <v>-12.5521040480127</v>
       </c>
       <c r="F53" t="n">
-        <v>0.803890865248572</v>
+        <v>0.8990326299993953</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.645832561831271</v>
+        <v>-4.561217008565195</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.834335756152338</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.98109635187366</v>
+        <v>-11.92724771028564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7759387986814869</v>
+        <v>0.873764485514864</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.804668379907092</v>
+        <v>-4.736549128221591</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.072417843588805</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.58003983892307</v>
+        <v>-11.54402291380548</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7280340625836111</v>
+        <v>0.8336234850021319</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.028140897112514</v>
+        <v>-4.953410032491941</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.30591069995589</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.1809078944902</v>
+        <v>-11.16657182287851</v>
       </c>
       <c r="F56" t="n">
-        <v>0.656589365976312</v>
+        <v>0.7586176820218832</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.242828479111138</v>
+        <v>-5.158697341050206</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.527895045153524</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.62927680655692</v>
+        <v>-10.61203424371437</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6391766031968164</v>
+        <v>0.7389792277592941</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.320858604047825</v>
+        <v>-5.237683204094339</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.732424403939205</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.37552179287858</v>
+        <v>-10.37680483855707</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5593659250736542</v>
+        <v>0.6583961037684701</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.464690643067028</v>
+        <v>-5.384853780338182</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.914622868102835</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.861976213911879</v>
+        <v>-9.869163888171986</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5900280983289766</v>
+        <v>0.6853662476224258</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.679600794213961</v>
+        <v>-5.601767053819899</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.067812350242725</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.69625384454131</v>
+        <v>-9.736067537482999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5871477917037969</v>
+        <v>0.6695638380924624</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.72305414734565</v>
+        <v>-5.66100972417871</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.191683752299321</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.314639401310679</v>
+        <v>-9.360095876777152</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6217245635087955</v>
+        <v>0.7051225326105905</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.741841601923527</v>
+        <v>-5.670698028281588</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.286746945191441</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.022550124911771</v>
+        <v>-9.087946177606192</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5953959424940843</v>
+        <v>0.6665526084388655</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.847496485856256</v>
+        <v>-5.762632178836188</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.353746542745644</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.717866053179121</v>
+        <v>-8.767944111548724</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5517854817282948</v>
+        <v>0.6269876692511693</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.827478354811257</v>
+        <v>-5.757617826847807</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.394639239364603</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.409542321256472</v>
+        <v>-8.464176501014995</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4486574122440186</v>
+        <v>0.5246975071487635</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.754135274291908</v>
+        <v>-5.689158175288421</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.412483198586428</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.279522661735291</v>
+        <v>-8.349448651212949</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3214264132281246</v>
+        <v>0.3846491436508198</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.774624728239209</v>
+        <v>-5.70735647623842</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.410988586407557</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.078411797783536</v>
+        <v>-8.151493032246051</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2672242794633787</v>
+        <v>0.3406197291940951</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.771390929437302</v>
+        <v>-5.692706189358529</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.390734708935612</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.93727677314973</v>
+        <v>-8.022363649318107</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1801473732630586</v>
+        <v>0.2479916865888831</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.738097203310793</v>
+        <v>-5.646136868150509</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.360785546618982</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.813214111421534</v>
+        <v>-7.878976748595523</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221877485827373</v>
+        <v>0.192938553139425</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.684274746328457</v>
+        <v>-5.594919779433677</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.326461151881665</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.738483246800961</v>
+        <v>-7.811734681200418</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1107450758990687</v>
+        <v>0.1865233247469792</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.591751442145979</v>
+        <v>-5.508523672981127</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.292344604535015</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.748511950777723</v>
+        <v>-7.820441062590167</v>
       </c>
       <c r="F70" t="n">
-        <v>0.004998545846447279</v>
+        <v>0.08150996365349442</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.484041066667099</v>
+        <v>-5.406704833781023</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.262495105734821</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.793025780439592</v>
+        <v>-7.88934585244617</v>
       </c>
       <c r="F71" t="n">
-        <v>8.893228080000287e-05</v>
+        <v>0.08363091671385404</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.315896621270811</v>
+        <v>-5.238494926870526</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.240132729201017</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.823190446186929</v>
+        <v>-7.904716215982357</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.07060950306452077</v>
+        <v>0.006019745468101911</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.216277288948118</v>
+        <v>-5.153224758462365</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.226613214492853</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.022219633986849</v>
+        <v>-8.114075230724399</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.1143247022530441</v>
+        <v>-0.03105765617966631</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.946091435203416</v>
+        <v>-4.885146765475182</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.221732328762839</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.158575968083426</v>
+        <v>-8.244605490056408</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1536801645952727</v>
+        <v>-0.08405529808297343</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.809368516627271</v>
+        <v>-4.754236829360763</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.231686761366103</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.492194029096289</v>
+        <v>-8.582648749429774</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2628437856895846</v>
+        <v>-0.1662880522318549</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.552628457901023</v>
+        <v>-4.509410766220485</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.258073960857764</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.760599329654514</v>
+        <v>-8.842138191752785</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.2368817491544418</v>
+        <v>-0.1572936401795891</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.240429404337223</v>
+        <v>-4.218656904711433</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.30221093876274</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.279630583511903</v>
+        <v>-9.35780472377985</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3230683787615246</v>
+        <v>-0.2305974437904133</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.038899586694534</v>
+        <v>-3.994739249209392</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.365404339562187</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.739196597862172</v>
+        <v>-9.812160001599111</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.277166764998433</v>
+        <v>-0.1792101551366385</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.945643113552919</v>
+        <v>-3.901875545153029</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.448513512939719</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.1608473031828</v>
+        <v>-10.25389429947895</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.3485590923943652</v>
+        <v>-0.2471722991880385</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.801090997877421</v>
+        <v>-3.752714938877244</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.549185360901626</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.77863379737533</v>
+        <v>-10.84960717108033</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4071602399139311</v>
+        <v>-0.2997771720060939</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.469214213142507</v>
+        <v>-3.424058860641394</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.66848021043033</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.47137372533674</v>
+        <v>-11.53223984124792</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.4274925862271317</v>
+        <v>-0.3170459194543305</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.310312933552478</v>
+        <v>-3.265838380799134</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.809768147827282</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.30903235345322</v>
+        <v>-12.37415346778796</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4928493620130282</v>
+        <v>-0.3830704026851551</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.971209197648931</v>
+        <v>-2.926944121741055</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.973288544660065</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.23183022694944</v>
+        <v>-13.29002551308091</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.483540734692561</v>
+        <v>-0.3613895491792568</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.826460697430808</v>
+        <v>-2.777927530796529</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.1585063089894</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.19753157685799</v>
+        <v>-14.23942694595151</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5324535781092495</v>
+        <v>-0.415958267423571</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.554441921288265</v>
+        <v>-2.503748524685102</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.363893610029338</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.41571798706924</v>
+        <v>-15.46209092373463</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.591892633010686</v>
+        <v>-0.467764509768281</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.352270580806331</v>
+        <v>-2.305871459535254</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.587352860251944</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.48440339113081</v>
+        <v>-16.52509426836289</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6896004891184876</v>
+        <v>-0.5632990436043561</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.129583601771412</v>
+        <v>-2.064973087247494</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.820298566638592</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.6724513202004</v>
+        <v>-17.69849191055259</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6178153926373036</v>
+        <v>-0.4938312847261577</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.063637672357638</v>
+        <v>-2.006424308939295</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.062989109576245</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.04936881006473</v>
+        <v>-19.07162572489566</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.773600704151002</v>
+        <v>-0.648713227343777</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.033224252856309</v>
+        <v>-1.975749043381131</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.313259898377446</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.60487840299304</v>
+        <v>-20.60366081882876</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7496810668591685</v>
+        <v>-0.6314444798955403</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.024256025409727</v>
+        <v>-1.962473448299621</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.567734529512702</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.2500440857815</v>
+        <v>-22.23979281265643</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7962896649757133</v>
+        <v>-0.6706297423008265</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.049799108253934</v>
+        <v>-1.97369355183498</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.823475419985339</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.96008212915071</v>
+        <v>-23.9502890866251</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9285612005856717</v>
+        <v>-0.8139904584177269</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.089390232047314</v>
+        <v>-2.014188044524439</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.078316995162105</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.69838645435521</v>
+        <v>-25.68779478135625</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9827371497447343</v>
+        <v>-0.8617642714871854</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.157548760641339</v>
+        <v>-2.077018005861882</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.330469292835904</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.72997145551721</v>
+        <v>-27.71105307791091</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.156210162397605</v>
+        <v>-1.035080176505955</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.338589124336727</v>
+        <v>-2.270705534102378</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.572817785340563</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.77954528078374</v>
+        <v>-29.76348102519694</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.178951492433683</v>
+        <v>-1.062456181748004</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.397792517787013</v>
+        <v>-2.33731917096108</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.812307666700065</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.99083523075127</v>
+        <v>-31.96290934878987</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.434460874692809</v>
+        <v>-1.299518509303138</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.614718883571572</v>
+        <v>-2.549767969173769</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.05032688106052</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.25418017681751</v>
+        <v>-34.22552112589697</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.550432493264818</v>
+        <v>-1.428111107814572</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.825177651752319</v>
+        <v>-2.767047827135055</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.28661940280212</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.45826936022209</v>
+        <v>-36.43895821353055</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.71124524906974</v>
+        <v>-1.601989981855535</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.91802826350584</v>
+        <v>-2.852475103177317</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.52192546020351</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.80231526100473</v>
+        <v>-38.77334199481599</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.984520886285088</v>
+        <v>-1.870866605316064</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.170906092893779</v>
+        <v>-3.111637237929285</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.75171045470088</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.10805308367247</v>
+        <v>-41.08080800145884</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.996159943511382</v>
+        <v>-1.886184599640883</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.379270092619849</v>
+        <v>-3.357563054508268</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.97237566861012</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.44568375606266</v>
+        <v>-43.41261259908446</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.315651409758023</v>
+        <v>-2.221386829297596</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.469305859262399</v>
+        <v>-3.419424185435423</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.16933631733547</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.77109930990152</v>
+        <v>-45.7477164570262</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.359432070460755</v>
+        <v>-2.263229829179752</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.716920582907965</v>
+        <v>-3.68146662681257</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-11.34958013604214</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.29114503778548</v>
+        <v>-48.28562008598627</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.60438905662945</v>
+        <v>-2.530456822482223</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.760963089667531</v>
+        <v>-3.717509736535842</v>
       </c>
     </row>
   </sheetData>
